--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Sulfentrazone/Data Sheet_A92_Sulfentrazone PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Sulfentrazone/Data Sheet_A92_Sulfentrazone PRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Sulfentrazone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{FBCEA616-240D-4628-A2AF-C2F03E0C33C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270597CA-C747-42BD-B741-A777B754EBCA}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{FBCEA616-240D-4628-A2AF-C2F03E0C33C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A134149D-DA26-4D10-85E3-CF39BC130C92}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1st Run" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$I$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$M$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,18 @@
   <si>
     <t>rate</t>
   </si>
+  <si>
+    <t>percentcount</t>
+  </si>
+  <si>
+    <t>percentbio</t>
+  </si>
+  <si>
+    <t>countred</t>
+  </si>
+  <si>
+    <t>biored</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,14 +520,20 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,8 +561,20 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -565,8 +602,20 @@
       <c r="I2" s="2">
         <v>2.3610000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -594,8 +643,20 @@
       <c r="I3" s="2">
         <v>1.8540000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -623,8 +684,20 @@
       <c r="I4" s="2">
         <v>1.3340000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -652,8 +725,20 @@
       <c r="I5" s="2">
         <v>2.3860000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -681,8 +766,20 @@
       <c r="I6" s="2">
         <v>1.282</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.35374921235034651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -710,8 +807,20 @@
       <c r="I7" s="2">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.166351606805293E-2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.91833648393194711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -739,8 +848,20 @@
       <c r="I8" s="2">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.89729048519218657</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.10270951480781343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -768,8 +889,20 @@
       <c r="I9" s="2">
         <v>2.2989999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -797,8 +930,20 @@
       <c r="I10" s="2">
         <v>1.8320000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.92350346565847519</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7.6496534341524813E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -826,8 +971,20 @@
       <c r="I11" s="2">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7.2589792060491487E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.92741020793950857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -855,8 +1012,20 @@
       <c r="I12" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4.0831758034026465E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.9591682419659735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -884,8 +1053,20 @@
       <c r="I13" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4.9401386263390051E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.95059861373660992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -913,8 +1094,20 @@
       <c r="I14" s="2">
         <v>1.093</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.55097668557025836</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.3333333333333308E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.44902331442974164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -942,8 +1135,20 @@
       <c r="I15" s="2">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.38160050409577823</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.61839949590422183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -971,8 +1176,20 @@
       <c r="I16" s="2">
         <v>1.5249999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <v>0.61333333333333329</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.76874606175173277</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.38666666666666671</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.23125393824826723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1000,8 +1217,20 @@
       <c r="I17" s="2">
         <v>2.4630000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1029,8 +1258,20 @@
       <c r="I18" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.95778197857592939</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4.2218021424070606E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1058,8 +1299,20 @@
       <c r="I19" s="2">
         <v>0.53200000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.26817895400126029</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.73182104599873976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1087,8 +1340,20 @@
       <c r="I20" s="2">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>9.2249527410207949E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.90775047258979202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1116,8 +1381,20 @@
       <c r="I21" s="2">
         <v>1.2969999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <v>0.50666666666666671</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.65381222432262132</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.34618777567737868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1145,8 +1422,20 @@
       <c r="I22" s="2">
         <v>1.4510000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.73144297416509141</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.26855702583490859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1174,8 +1463,20 @@
       <c r="I23" s="2">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.38160050409577823</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.61839949590422183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1203,8 +1504,20 @@
       <c r="I24" s="2">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5.0913673597983621E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.9490863264020164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1232,8 +1545,20 @@
       <c r="I25" s="2">
         <v>1.0549999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.53182104599873981</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.46817895400126019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1261,8 +1586,20 @@
       <c r="I26" s="2">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.21827347195967234</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.78172652804032761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1290,8 +1627,20 @@
       <c r="I27" s="2">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.11140516698172653</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.88859483301827347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1319,8 +1668,20 @@
       <c r="I28" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.6635160680529303E-2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.98336483931947072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1348,8 +1709,20 @@
       <c r="I29" s="2">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.2333963453056081</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.76660365469439196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1377,8 +1750,20 @@
       <c r="I30" s="2">
         <v>0.47799999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.24095778197857592</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.75904221802142402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1406,8 +1791,20 @@
       <c r="I31" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2.0163831127914303E-3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.9979836168872086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1435,8 +1832,20 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1464,8 +1873,20 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1493,8 +1914,20 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1522,8 +1955,20 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1551,8 +1996,20 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1580,8 +2037,20 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1609,8 +2078,20 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1638,8 +2119,20 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1667,8 +2160,20 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1696,8 +2201,20 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1725,8 +2242,20 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1754,8 +2283,20 @@
       <c r="I43" s="2">
         <v>0.99099999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.49955891619407689</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.50044108380592311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1783,8 +2324,20 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1812,8 +2365,20 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>125</v>
       </c>
@@ -1841,8 +2406,20 @@
       <c r="I46" s="2">
         <v>0.93700000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>126</v>
       </c>
@@ -1870,8 +2447,20 @@
       <c r="I47" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>127</v>
       </c>
@@ -1899,8 +2488,20 @@
       <c r="I48" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>129</v>
       </c>
@@ -1928,8 +2529,20 @@
       <c r="I49" s="2">
         <v>0.88100000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>130</v>
       </c>
@@ -1957,8 +2570,20 @@
       <c r="I50" s="2">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>131</v>
       </c>
@@ -1986,8 +2611,20 @@
       <c r="I51" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3.113207547169811E-2</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0.96886792452830184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>132</v>
       </c>
@@ -2015,8 +2652,20 @@
       <c r="I52" s="2">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.97641509433962259</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2.3584905660377409E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>133</v>
       </c>
@@ -2044,8 +2693,20 @@
       <c r="I53" s="2">
         <v>1.234</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>134</v>
       </c>
@@ -2073,8 +2734,20 @@
       <c r="I54" s="2">
         <v>0.91200000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>135</v>
       </c>
@@ -2102,8 +2775,20 @@
       <c r="I55" s="2">
         <v>1.0640000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>136</v>
       </c>
@@ -2131,8 +2816,20 @@
       <c r="I56" s="2">
         <v>1.3440000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>137</v>
       </c>
@@ -2160,8 +2857,20 @@
       <c r="I57" s="2">
         <v>1.0629999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>138</v>
       </c>
@@ -2189,8 +2898,20 @@
       <c r="I58" s="2">
         <v>1.8979999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>139</v>
       </c>
@@ -2218,8 +2939,20 @@
       <c r="I59" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2.8301886792452831E-2</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.97169811320754718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>140</v>
       </c>
@@ -2247,8 +2980,20 @@
       <c r="I60" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.19811320754716982</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.80188679245283012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>141</v>
       </c>
@@ -2276,8 +3021,20 @@
       <c r="I61" s="2">
         <v>0.78400000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>142</v>
       </c>
@@ -2305,8 +3062,20 @@
       <c r="I62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>143</v>
       </c>
@@ -2334,8 +3103,20 @@
       <c r="I63" s="2">
         <v>2.2749999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>144</v>
       </c>
@@ -2363,8 +3144,20 @@
       <c r="I64" s="2">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.47264150943396227</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0.52735849056603779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>145</v>
       </c>
@@ -2392,8 +3185,20 @@
       <c r="I65" s="2">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K65" s="4">
+        <v>6.5094339622641509E-2</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0.93490566037735845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>146</v>
       </c>
@@ -2421,8 +3226,20 @@
       <c r="I66" s="2">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.52358490566037741</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0.47641509433962259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>147</v>
       </c>
@@ -2450,8 +3267,20 @@
       <c r="I67" s="2">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.29433962264150942</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.70566037735849063</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>148</v>
       </c>
@@ -2479,8 +3308,20 @@
       <c r="I68" s="2">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>149</v>
       </c>
@@ -2508,8 +3349,20 @@
       <c r="I69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>150</v>
       </c>
@@ -2537,8 +3390,20 @@
       <c r="I70" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0.83018867924528306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>151</v>
       </c>
@@ -2566,8 +3431,20 @@
       <c r="I71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>152</v>
       </c>
@@ -2595,8 +3472,20 @@
       <c r="I72" s="2">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.2660377358490566</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0.73396226415094334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>153</v>
       </c>
@@ -2624,8 +3513,20 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>154</v>
       </c>
@@ -2653,8 +3554,20 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>155</v>
       </c>
@@ -2682,8 +3595,20 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>156</v>
       </c>
@@ -2711,8 +3636,20 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -2740,8 +3677,20 @@
       <c r="I77" s="2">
         <v>2.0619999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -2769,8 +3718,20 @@
       <c r="I78" s="2">
         <v>1.6160000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -2798,8 +3759,20 @@
       <c r="I79" s="2">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -2827,8 +3800,20 @@
       <c r="I80" s="2">
         <v>2.125</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>5</v>
       </c>
@@ -2856,8 +3841,20 @@
       <c r="I81" s="2">
         <v>2.2909999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>6</v>
       </c>
@@ -2885,8 +3882,20 @@
       <c r="I82" s="2">
         <v>0.95399999999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0.55080831408775976</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0.51724137931034475</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0.44919168591224024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>7</v>
       </c>
@@ -2914,8 +3923,20 @@
       <c r="I83" s="2">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="K83" s="4">
+        <v>6.0623556581986142E-2</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0.93937644341801385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>8</v>
       </c>
@@ -2943,8 +3964,20 @@
       <c r="I84" s="2">
         <v>2.452</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>9</v>
       </c>
@@ -2972,8 +4005,20 @@
       <c r="I85" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0.40415704387990758</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0.59584295612009242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>10</v>
       </c>
@@ -3001,8 +4046,20 @@
       <c r="I86" s="2">
         <v>1.3640000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0.78752886836027725</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0.21247113163972275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>11</v>
       </c>
@@ -3030,8 +4087,20 @@
       <c r="I87" s="2">
         <v>1.1220000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0.64780600461893767</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0.35219399538106233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>12</v>
       </c>
@@ -3059,8 +4128,20 @@
       <c r="I88" s="2">
         <v>1.641</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0.94745958429561206</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="M88" s="4">
+        <v>5.2540415704387944E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>13</v>
       </c>
@@ -3088,8 +4169,20 @@
       <c r="I89" s="2">
         <v>1.534</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0.88568129330254042</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0.11431870669745958</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>14</v>
       </c>
@@ -3117,8 +4210,20 @@
       <c r="I90" s="2">
         <v>0.69899999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0.4035796766743649</v>
+      </c>
+      <c r="L90" s="4">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4">
+        <v>0.5964203233256351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>15</v>
       </c>
@@ -3146,8 +4251,20 @@
       <c r="I91" s="2">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0.28579676674364896</v>
+      </c>
+      <c r="L91" s="4">
+        <v>0</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0.71420323325635104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>16</v>
       </c>
@@ -3175,8 +4292,20 @@
       <c r="I92" s="2">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0.45034642032332567</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="M92" s="4">
+        <v>0.54965357967667439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>17</v>
       </c>
@@ -3204,8 +4333,20 @@
       <c r="I93" s="2">
         <v>1.1319999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0.6535796766743649</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0.3464203233256351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>18</v>
       </c>
@@ -3233,8 +4374,20 @@
       <c r="I94" s="2">
         <v>0.96299999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0.5560046189376443</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0.4439953810623557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>19</v>
       </c>
@@ -3262,8 +4415,20 @@
       <c r="I95" s="2">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0.53406466512702078</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0.46593533487297922</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>20</v>
       </c>
@@ -3291,8 +4456,20 @@
       <c r="I96" s="2">
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="4">
+        <v>1</v>
+      </c>
+      <c r="L96" s="4">
+        <v>0</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>21</v>
       </c>
@@ -3320,8 +4497,20 @@
       <c r="I97" s="2">
         <v>1.7210000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0.99364896073903008</v>
+      </c>
+      <c r="L97" s="4">
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="M97" s="4">
+        <v>6.3510392609699151E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>22</v>
       </c>
@@ -3349,8 +4538,20 @@
       <c r="I98" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K98" s="4">
+        <v>3.9838337182448037E-2</v>
+      </c>
+      <c r="L98" s="4">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0.960161662817552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>23</v>
       </c>
@@ -3378,8 +4579,20 @@
       <c r="I99" s="2">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0.61200923787528871</v>
+      </c>
+      <c r="L99" s="4">
+        <v>0</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0.38799076212471129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>24</v>
       </c>
@@ -3407,8 +4620,20 @@
       <c r="I100" s="2">
         <v>1.2549999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0.72459584295612001</v>
+      </c>
+      <c r="L100" s="4">
+        <v>0</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0.27540415704387999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>25</v>
       </c>
@@ -3436,8 +4661,20 @@
       <c r="I101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>26</v>
       </c>
@@ -3465,8 +4702,20 @@
       <c r="I102" s="2">
         <v>0.85899999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0.4959584295612009</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0.24137931034482762</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0.50404157043879905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>27</v>
       </c>
@@ -3494,8 +4743,20 @@
       <c r="I103" s="2">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0.47344110854503463</v>
+      </c>
+      <c r="L103" s="4">
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0.52655889145496537</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>28</v>
       </c>
@@ -3523,8 +4784,20 @@
       <c r="I104" s="2">
         <v>1.4510000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0.83775981524249432</v>
+      </c>
+      <c r="L104" s="4">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0.16224018475750568</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>29</v>
       </c>
@@ -3552,8 +4825,20 @@
       <c r="I105" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K105" s="4">
+        <v>5.1963048498845262E-3</v>
+      </c>
+      <c r="L105" s="4">
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0.99480369515011546</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>30</v>
       </c>
@@ -3581,8 +4866,20 @@
       <c r="I106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>31</v>
       </c>
@@ -3610,8 +4907,20 @@
       <c r="I107" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>5.7736720554272516E-4</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0.99942263279445731</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>32</v>
       </c>
@@ -3639,8 +4948,20 @@
       <c r="I108" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="K108" s="4">
+        <v>3.4064665127020784E-2</v>
+      </c>
+      <c r="L108" s="4">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0.96593533487297922</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>33</v>
       </c>
@@ -3668,8 +4989,20 @@
       <c r="I109" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K109" s="4">
+        <v>5.7736720554272519E-3</v>
+      </c>
+      <c r="L109" s="4">
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0.99422632794457277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>34</v>
       </c>
@@ -3697,8 +5030,20 @@
       <c r="I110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+      <c r="L110" s="4">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>35</v>
       </c>
@@ -3726,8 +5071,20 @@
       <c r="I111" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="K111" s="4">
+        <v>2.5404157043879907E-2</v>
+      </c>
+      <c r="L111" s="4">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0.97459584295612012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>36</v>
       </c>
@@ -3755,8 +5112,20 @@
       <c r="I112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4">
+        <v>1</v>
+      </c>
+      <c r="M112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>37</v>
       </c>
@@ -3784,8 +5153,20 @@
       <c r="I113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113" s="4">
+        <v>1</v>
+      </c>
+      <c r="M113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>38</v>
       </c>
@@ -3813,8 +5194,20 @@
       <c r="I114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114" s="4">
+        <v>1</v>
+      </c>
+      <c r="M114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>39</v>
       </c>
@@ -3842,8 +5235,20 @@
       <c r="I115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <v>0</v>
+      </c>
+      <c r="L115" s="4">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40</v>
       </c>
@@ -3871,8 +5276,20 @@
       <c r="I116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+      <c r="L116" s="4">
+        <v>1</v>
+      </c>
+      <c r="M116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>41</v>
       </c>
@@ -3900,8 +5317,20 @@
       <c r="I117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
+        <v>0</v>
+      </c>
+      <c r="L117" s="4">
+        <v>1</v>
+      </c>
+      <c r="M117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42</v>
       </c>
@@ -3929,8 +5358,20 @@
       <c r="I118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
+        <v>0</v>
+      </c>
+      <c r="L118" s="4">
+        <v>1</v>
+      </c>
+      <c r="M118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43</v>
       </c>
@@ -3958,8 +5399,20 @@
       <c r="I119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0</v>
+      </c>
+      <c r="L119" s="4">
+        <v>1</v>
+      </c>
+      <c r="M119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44</v>
       </c>
@@ -3987,8 +5440,20 @@
       <c r="I120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <v>0</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0</v>
+      </c>
+      <c r="L120" s="4">
+        <v>1</v>
+      </c>
+      <c r="M120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>125</v>
       </c>
@@ -4016,8 +5481,20 @@
       <c r="I121" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="L121" s="4">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>126</v>
       </c>
@@ -4045,8 +5522,20 @@
       <c r="I122" s="2">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="4">
+        <v>1</v>
+      </c>
+      <c r="L122" s="4">
+        <v>0</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>127</v>
       </c>
@@ -4074,8 +5563,20 @@
       <c r="I123" s="2">
         <v>1.6859999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1</v>
+      </c>
+      <c r="L123" s="4">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>129</v>
       </c>
@@ -4103,8 +5604,20 @@
       <c r="I124" s="2">
         <v>1.444</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>130</v>
       </c>
@@ -4132,8 +5645,20 @@
       <c r="I125" s="2">
         <v>1.5980000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1</v>
+      </c>
+      <c r="L125" s="4">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>131</v>
       </c>
@@ -4161,8 +5686,20 @@
       <c r="I126" s="2">
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0.29275505174963035</v>
+      </c>
+      <c r="L126" s="4">
+        <v>0.47368421052631582</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0.70724494825036965</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>132</v>
       </c>
@@ -4190,8 +5727,20 @@
       <c r="I127" s="2">
         <v>1.3009999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4">
+        <v>0.96180384425825527</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4">
+        <v>3.8196155741744731E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>133</v>
       </c>
@@ -4219,8 +5768,20 @@
       <c r="I128" s="2">
         <v>0.46500000000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="4">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="K128" s="4">
+        <v>0.34376540167570235</v>
+      </c>
+      <c r="L128" s="4">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0.65623459832429765</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>134</v>
       </c>
@@ -4248,8 +5809,20 @@
       <c r="I129" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="4">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0.14785608674223757</v>
+      </c>
+      <c r="L129" s="4">
+        <v>0.47368421052631582</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0.8521439132577624</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>135</v>
       </c>
@@ -4277,8 +5850,20 @@
       <c r="I130" s="2">
         <v>0.89700000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="4">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="K130" s="4">
+        <v>0.66313454903893543</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0.33686545096106457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>136</v>
       </c>
@@ -4306,8 +5891,20 @@
       <c r="I131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="4">
+        <v>0</v>
+      </c>
+      <c r="K131" s="4">
+        <v>0</v>
+      </c>
+      <c r="L131" s="4">
+        <v>1</v>
+      </c>
+      <c r="M131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>137</v>
       </c>
@@ -4335,8 +5932,20 @@
       <c r="I132" s="2">
         <v>0.30399999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="4">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K132" s="4">
+        <v>0.22474125184820107</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0.52631578947368429</v>
+      </c>
+      <c r="M132" s="4">
+        <v>0.77525874815179896</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>138</v>
       </c>
@@ -4364,8 +5973,20 @@
       <c r="I133" s="2">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="4">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="K133" s="4">
+        <v>0.13011335633316903</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="M133" s="4">
+        <v>0.86988664366683099</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>139</v>
       </c>
@@ -4393,8 +6014,20 @@
       <c r="I134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="4">
+        <v>0</v>
+      </c>
+      <c r="K134" s="4">
+        <v>0</v>
+      </c>
+      <c r="L134" s="4">
+        <v>1</v>
+      </c>
+      <c r="M134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>141</v>
       </c>
@@ -4422,8 +6055,20 @@
       <c r="I135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
+        <v>0</v>
+      </c>
+      <c r="L135" s="4">
+        <v>1</v>
+      </c>
+      <c r="M135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>142</v>
       </c>
@@ -4451,8 +6096,20 @@
       <c r="I136" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="4">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K136" s="4">
+        <v>2.2178413011335631E-2</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0.97782158698866439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>143</v>
       </c>
@@ -4480,8 +6137,20 @@
       <c r="I137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="4">
+        <v>0</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0</v>
+      </c>
+      <c r="L137" s="4">
+        <v>1</v>
+      </c>
+      <c r="M137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>145</v>
       </c>
@@ -4509,8 +6178,20 @@
       <c r="I138" s="2">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="4">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0.25283390832922625</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0.74716609167077375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>146</v>
       </c>
@@ -4538,8 +6219,20 @@
       <c r="I139" s="2">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="4">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K139" s="4">
+        <v>0.2787087235091178</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="M139" s="4">
+        <v>0.7212912764908822</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>147</v>
       </c>
@@ -4567,8 +6260,20 @@
       <c r="I140" s="2">
         <v>0.30599999999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="4">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K140" s="4">
+        <v>0.22621981271562344</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0.52631578947368429</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0.77378018728437659</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>149</v>
       </c>
@@ -4596,8 +6301,20 @@
       <c r="I141" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="4">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="K141" s="4">
+        <v>6.7274519467718091E-2</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0.26315789473684215</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0.93272548053228188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>150</v>
       </c>
@@ -4625,8 +6342,20 @@
       <c r="I142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="4">
+        <v>0</v>
+      </c>
+      <c r="K142" s="4">
+        <v>0</v>
+      </c>
+      <c r="L142" s="4">
+        <v>1</v>
+      </c>
+      <c r="M142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>151</v>
       </c>
@@ -4654,8 +6383,20 @@
       <c r="I143" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="4">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.4785608674223755E-2</v>
+      </c>
+      <c r="L143" s="4">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0.98521439132577626</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>153</v>
       </c>
@@ -4683,8 +6424,20 @@
       <c r="I144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="4">
+        <v>0</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0</v>
+      </c>
+      <c r="L144" s="4">
+        <v>1</v>
+      </c>
+      <c r="M144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>154</v>
       </c>
@@ -4712,8 +6465,20 @@
       <c r="I145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="4">
+        <v>0</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0</v>
+      </c>
+      <c r="L145" s="4">
+        <v>1</v>
+      </c>
+      <c r="M145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>155</v>
       </c>
@@ -4741,9 +6506,21 @@
       <c r="I146" s="2">
         <v>1E-3</v>
       </c>
+      <c r="J146" s="4">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="K146" s="4">
+        <v>7.3928043371118777E-4</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0.99926071956628881</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
+  <autoFilter ref="A1:M146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
